--- a/проект/python/Zadachka.xlsx
+++ b/проект/python/Zadachka.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">F =(float)</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">Товар 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Товар n</t>
   </si>
 </sst>
 </file>
@@ -168,101 +165,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>488160</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Изображение 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10942560" y="529200"/>
-          <a:ext cx="6473880" cy="3192120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>374400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>488160</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11232000" y="4187160"/>
-          <a:ext cx="2390400" cy="932760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -370,24 +281,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -396,7 +291,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
